--- a/tests/mesoraSmall.xlsx
+++ b/tests/mesoraSmall.xlsx
@@ -134,7 +134,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ד1</t>
+      <t xml:space="preserve">ד</t>
     </r>
   </si>
   <si>
@@ -160,7 +160,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ד2</t>
+      <t xml:space="preserve">ה</t>
     </r>
   </si>
   <si>
@@ -186,21 +186,359 @@
       <rPr>
         <sz val="8"/>
       </rPr>
+      <t xml:space="preserve">ו</t>
+    </r>
+  </si>
+  <si>
+    <t>ל תשרי</t>
+  </si>
+  <si>
+    <t>6/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">יהושע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">ז</t>
+    </r>
+  </si>
+  <si>
+    <t>א חשון</t>
+  </si>
+  <si>
+    <t>7/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">יהושע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">ח</t>
+    </r>
+  </si>
+  <si>
+    <t>ב חשון</t>
+  </si>
+  <si>
+    <t>8/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">יהושע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">ט</t>
+    </r>
+  </si>
+  <si>
+    <t>ד חשון</t>
+  </si>
+  <si>
+    <t>10/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">יהושע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">י</t>
+    </r>
+  </si>
+  <si>
+    <t>ה חשון</t>
+  </si>
+  <si>
+    <t>11/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">יהושע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">יא</t>
+    </r>
+  </si>
+  <si>
+    <t>ו חשון</t>
+  </si>
+  <si>
+    <t>12/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">יהושע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">יב</t>
+    </r>
+  </si>
+  <si>
+    <t>ז חשון</t>
+  </si>
+  <si>
+    <t>13/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">יהושע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">יג</t>
+    </r>
+  </si>
+  <si>
+    <t>ח חשון</t>
+  </si>
+  <si>
+    <t>14/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">יהושע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">יד</t>
+    </r>
+  </si>
+  <si>
+    <t>ט חשון</t>
+  </si>
+  <si>
+    <t>15/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">א</t>
+    </r>
+  </si>
+  <si>
+    <t>יא חשון</t>
+  </si>
+  <si>
+    <t>17/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">ב</t>
+    </r>
+  </si>
+  <si>
+    <t>יב חשון</t>
+  </si>
+  <si>
+    <t>18/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">ג</t>
+    </r>
+  </si>
+  <si>
+    <t>יג חשון</t>
+  </si>
+  <si>
+    <t>19/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">ד</t>
+    </r>
+  </si>
+  <si>
+    <t>יד חשון</t>
+  </si>
+  <si>
+    <t>20/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
       <t xml:space="preserve">ה</t>
     </r>
   </si>
   <si>
-    <t>ל תשרי</t>
-  </si>
-  <si>
-    <t>6/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">יהושע</t>
+    <t>טו חשון</t>
+  </si>
+  <si>
+    <t>21/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
     </r>
     <r>
       <rPr>
@@ -216,17 +554,17 @@
     </r>
   </si>
   <si>
-    <t>א חשון</t>
-  </si>
-  <si>
-    <t>7/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">יהושע</t>
+    <t>טז חשון</t>
+  </si>
+  <si>
+    <t>22/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
     </r>
     <r>
       <rPr>
@@ -242,17 +580,17 @@
     </r>
   </si>
   <si>
-    <t>ב חשון</t>
-  </si>
-  <si>
-    <t>8/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">יהושע</t>
+    <t>יח חשון</t>
+  </si>
+  <si>
+    <t>24/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
     </r>
     <r>
       <rPr>
@@ -268,17 +606,17 @@
     </r>
   </si>
   <si>
-    <t>ד חשון</t>
-  </si>
-  <si>
-    <t>10/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">יהושע</t>
+    <t>יט חשון</t>
+  </si>
+  <si>
+    <t>25/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
     </r>
     <r>
       <rPr>
@@ -294,17 +632,17 @@
     </r>
   </si>
   <si>
-    <t>ה חשון</t>
-  </si>
-  <si>
-    <t>11/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">יהושע</t>
+    <t>כ חשון</t>
+  </si>
+  <si>
+    <t>26/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
     </r>
     <r>
       <rPr>
@@ -320,17 +658,17 @@
     </r>
   </si>
   <si>
-    <t>ו חשון</t>
-  </si>
-  <si>
-    <t>12/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">יהושע</t>
+    <t>כא חשון</t>
+  </si>
+  <si>
+    <t>27/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
     </r>
     <r>
       <rPr>
@@ -346,17 +684,17 @@
     </r>
   </si>
   <si>
-    <t>ז חשון</t>
-  </si>
-  <si>
-    <t>13/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">יהושע</t>
+    <t>כב חשון</t>
+  </si>
+  <si>
+    <t>28/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
     </r>
     <r>
       <rPr>
@@ -372,17 +710,17 @@
     </r>
   </si>
   <si>
-    <t>ח חשון</t>
-  </si>
-  <si>
-    <t>14/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">יהושע</t>
+    <t>כג חשון</t>
+  </si>
+  <si>
+    <t>29/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
     </r>
     <r>
       <rPr>
@@ -398,17 +736,17 @@
     </r>
   </si>
   <si>
-    <t>ט חשון</t>
-  </si>
-  <si>
-    <t>15/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">יהושע</t>
+    <t>כה חשון</t>
+  </si>
+  <si>
+    <t>31/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שופטים</t>
     </r>
     <r>
       <rPr>
@@ -424,17 +762,17 @@
     </r>
   </si>
   <si>
-    <t>יא חשון</t>
-  </si>
-  <si>
-    <t>17/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>כו חשון</t>
+  </si>
+  <si>
+    <t>1/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -450,17 +788,17 @@
     </r>
   </si>
   <si>
-    <t>יב חשון</t>
-  </si>
-  <si>
-    <t>18/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>כז חשון</t>
+  </si>
+  <si>
+    <t>2/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -476,17 +814,17 @@
     </r>
   </si>
   <si>
-    <t>יג חשון</t>
-  </si>
-  <si>
-    <t>19/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>כח חשון</t>
+  </si>
+  <si>
+    <t>3/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -502,17 +840,17 @@
     </r>
   </si>
   <si>
-    <t>יד חשון</t>
-  </si>
-  <si>
-    <t>20/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>כט חשון</t>
+  </si>
+  <si>
+    <t>4/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -528,17 +866,17 @@
     </r>
   </si>
   <si>
-    <t>טו חשון</t>
-  </si>
-  <si>
-    <t>21/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>א כסלו</t>
+  </si>
+  <si>
+    <t>5/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -554,17 +892,17 @@
     </r>
   </si>
   <si>
-    <t>טז חשון</t>
-  </si>
-  <si>
-    <t>22/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>ג כסלו</t>
+  </si>
+  <si>
+    <t>7/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -580,17 +918,17 @@
     </r>
   </si>
   <si>
-    <t>יח חשון</t>
-  </si>
-  <si>
-    <t>24/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>ד כסלו</t>
+  </si>
+  <si>
+    <t>8/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -606,17 +944,17 @@
     </r>
   </si>
   <si>
-    <t>יט חשון</t>
-  </si>
-  <si>
-    <t>25/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>ה כסלו</t>
+  </si>
+  <si>
+    <t>9/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -632,17 +970,17 @@
     </r>
   </si>
   <si>
-    <t>כ חשון</t>
-  </si>
-  <si>
-    <t>26/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>ו כסלו</t>
+  </si>
+  <si>
+    <t>10/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -658,17 +996,17 @@
     </r>
   </si>
   <si>
-    <t>כא חשון</t>
-  </si>
-  <si>
-    <t>27/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>ז כסלו</t>
+  </si>
+  <si>
+    <t>11/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -684,17 +1022,17 @@
     </r>
   </si>
   <si>
-    <t>כב חשון</t>
-  </si>
-  <si>
-    <t>28/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>ח כסלו</t>
+  </si>
+  <si>
+    <t>12/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -710,17 +1048,17 @@
     </r>
   </si>
   <si>
-    <t>כג חשון</t>
-  </si>
-  <si>
-    <t>29/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>י כסלו</t>
+  </si>
+  <si>
+    <t>14/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -736,17 +1074,17 @@
     </r>
   </si>
   <si>
-    <t>כה חשון</t>
-  </si>
-  <si>
-    <t>31/10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>יא כסלו</t>
+  </si>
+  <si>
+    <t>15/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -762,17 +1100,17 @@
     </r>
   </si>
   <si>
-    <t>כו חשון</t>
-  </si>
-  <si>
-    <t>1/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שופטים</t>
+    <t>יב כסלו</t>
+  </si>
+  <si>
+    <t>16/11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שמואל</t>
     </r>
     <r>
       <rPr>
@@ -788,10 +1126,10 @@
     </r>
   </si>
   <si>
-    <t>כז חשון</t>
-  </si>
-  <si>
-    <t>2/11</t>
+    <t>יג כסלו</t>
+  </si>
+  <si>
+    <t>17/11</t>
   </si>
   <si>
     <r>
@@ -810,14 +1148,14 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">א</t>
-    </r>
-  </si>
-  <si>
-    <t>כח חשון</t>
-  </si>
-  <si>
-    <t>3/11</t>
+      <t xml:space="preserve">טו</t>
+    </r>
+  </si>
+  <si>
+    <t>יד כסלו</t>
+  </si>
+  <si>
+    <t>18/11</t>
   </si>
   <si>
     <r>
@@ -836,14 +1174,14 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ב</t>
-    </r>
-  </si>
-  <si>
-    <t>כט חשון</t>
-  </si>
-  <si>
-    <t>4/11</t>
+      <t xml:space="preserve">טז</t>
+    </r>
+  </si>
+  <si>
+    <t>טו כסלו</t>
+  </si>
+  <si>
+    <t>19/11</t>
   </si>
   <si>
     <r>
@@ -862,14 +1200,14 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ג</t>
-    </r>
-  </si>
-  <si>
-    <t>א כסלו</t>
-  </si>
-  <si>
-    <t>5/11</t>
+      <t xml:space="preserve">יז</t>
+    </r>
+  </si>
+  <si>
+    <t>יז כסלו</t>
+  </si>
+  <si>
+    <t>21/11</t>
   </si>
   <si>
     <r>
@@ -888,14 +1226,14 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ד</t>
-    </r>
-  </si>
-  <si>
-    <t>ג כסלו</t>
-  </si>
-  <si>
-    <t>7/11</t>
+      <t xml:space="preserve">יח</t>
+    </r>
+  </si>
+  <si>
+    <t>יח כסלו</t>
+  </si>
+  <si>
+    <t>22/11</t>
   </si>
   <si>
     <r>
@@ -914,14 +1252,14 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ה</t>
-    </r>
-  </si>
-  <si>
-    <t>ד כסלו</t>
-  </si>
-  <si>
-    <t>8/11</t>
+      <t xml:space="preserve">יט</t>
+    </r>
+  </si>
+  <si>
+    <t>יט כסלו</t>
+  </si>
+  <si>
+    <t>23/11</t>
   </si>
   <si>
     <r>
@@ -940,14 +1278,14 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ו</t>
-    </r>
-  </si>
-  <si>
-    <t>ה כסלו</t>
-  </si>
-  <si>
-    <t>9/11</t>
+      <t xml:space="preserve">כ</t>
+    </r>
+  </si>
+  <si>
+    <t>כ כסלו</t>
+  </si>
+  <si>
+    <t>24/11</t>
   </si>
   <si>
     <r>
@@ -966,14 +1304,14 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ז</t>
-    </r>
-  </si>
-  <si>
-    <t>ו כסלו</t>
-  </si>
-  <si>
-    <t>10/11</t>
+      <t xml:space="preserve">כא</t>
+    </r>
+  </si>
+  <si>
+    <t>כא כסלו</t>
+  </si>
+  <si>
+    <t>25/11</t>
   </si>
   <si>
     <r>
@@ -992,14 +1330,14 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ח</t>
-    </r>
-  </si>
-  <si>
-    <t>ז כסלו</t>
-  </si>
-  <si>
-    <t>11/11</t>
+      <t xml:space="preserve">כב</t>
+    </r>
+  </si>
+  <si>
+    <t>כב כסלו</t>
+  </si>
+  <si>
+    <t>26/11</t>
   </si>
   <si>
     <r>
@@ -1018,14 +1356,14 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ט</t>
-    </r>
-  </si>
-  <si>
-    <t>ח כסלו</t>
-  </si>
-  <si>
-    <t>12/11</t>
+      <t xml:space="preserve">כג</t>
+    </r>
+  </si>
+  <si>
+    <t>כד כסלו</t>
+  </si>
+  <si>
+    <t>28/11</t>
   </si>
   <si>
     <r>
@@ -1044,345 +1382,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">י</t>
-    </r>
-  </si>
-  <si>
-    <t>י כסלו</t>
-  </si>
-  <si>
-    <t>14/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">יא</t>
-    </r>
-  </si>
-  <si>
-    <t>יא כסלו</t>
-  </si>
-  <si>
-    <t>15/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">יב</t>
-    </r>
-  </si>
-  <si>
-    <t>יב כסלו</t>
-  </si>
-  <si>
-    <t>16/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">יג</t>
-    </r>
-  </si>
-  <si>
-    <t>יג כסלו</t>
-  </si>
-  <si>
-    <t>17/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">יד</t>
-    </r>
-  </si>
-  <si>
-    <t>יד כסלו</t>
-  </si>
-  <si>
-    <t>18/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">טו</t>
-    </r>
-  </si>
-  <si>
-    <t>טו כסלו</t>
-  </si>
-  <si>
-    <t>19/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">טז</t>
-    </r>
-  </si>
-  <si>
-    <t>יז כסלו</t>
-  </si>
-  <si>
-    <t>21/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">יז</t>
-    </r>
-  </si>
-  <si>
-    <t>יח כסלו</t>
-  </si>
-  <si>
-    <t>22/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">יח</t>
-    </r>
-  </si>
-  <si>
-    <t>יט כסלו</t>
-  </si>
-  <si>
-    <t>23/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">יט</t>
-    </r>
-  </si>
-  <si>
-    <t>כ כסלו</t>
-  </si>
-  <si>
-    <t>24/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">כ</t>
-    </r>
-  </si>
-  <si>
-    <t>כא כסלו</t>
-  </si>
-  <si>
-    <t>25/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">כא</t>
-    </r>
-  </si>
-  <si>
-    <t>כב כסלו</t>
-  </si>
-  <si>
-    <t>26/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">כב</t>
-    </r>
-  </si>
-  <si>
-    <t>כד כסלו</t>
-  </si>
-  <si>
-    <t>28/11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">שמואל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">כג</t>
+      <t xml:space="preserve">כד</t>
     </r>
   </si>
   <si>
@@ -1421,7 +1421,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כד</t>
+      <t xml:space="preserve">כה</t>
     </r>
   </si>
   <si>
@@ -1460,7 +1460,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כה</t>
+      <t xml:space="preserve">כו</t>
     </r>
   </si>
   <si>
@@ -1499,7 +1499,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כו</t>
+      <t xml:space="preserve">כז</t>
     </r>
   </si>
   <si>
@@ -1538,7 +1538,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כז</t>
+      <t xml:space="preserve">כח</t>
     </r>
   </si>
   <si>
@@ -1577,7 +1577,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כח</t>
+      <t xml:space="preserve">כט</t>
     </r>
   </si>
   <si>
@@ -1616,7 +1616,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כט</t>
+      <t xml:space="preserve">ל</t>
     </r>
   </si>
   <si>
@@ -1655,7 +1655,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ל</t>
+      <t xml:space="preserve">לא</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">לא</t>
+      <t xml:space="preserve">לב</t>
     </r>
   </si>
   <si>
@@ -1707,7 +1707,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">לב</t>
+      <t xml:space="preserve">לג</t>
     </r>
   </si>
   <si>
@@ -1733,7 +1733,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">לג</t>
+      <t xml:space="preserve">לד</t>
     </r>
   </si>
   <si>
@@ -1747,19 +1747,19 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">שמואל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">לד</t>
+      <t xml:space="preserve">מלכים</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">א</t>
     </r>
   </si>
   <si>
@@ -1785,7 +1785,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">א</t>
+      <t xml:space="preserve">ב</t>
     </r>
   </si>
   <si>
@@ -1811,7 +1811,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ב</t>
+      <t xml:space="preserve">ג</t>
     </r>
   </si>
   <si>
@@ -1850,7 +1850,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ג</t>
+      <t xml:space="preserve">ד</t>
     </r>
   </si>
   <si>
@@ -1876,7 +1876,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ד</t>
+      <t xml:space="preserve">ה</t>
     </r>
   </si>
   <si>
@@ -1902,7 +1902,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ה</t>
+      <t xml:space="preserve">ו</t>
     </r>
   </si>
   <si>
@@ -1928,7 +1928,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ו</t>
+      <t xml:space="preserve">ז</t>
     </r>
   </si>
   <si>
@@ -1954,7 +1954,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ז</t>
+      <t xml:space="preserve">ח</t>
     </r>
   </si>
   <si>
@@ -1980,7 +1980,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ח</t>
+      <t xml:space="preserve">ט</t>
     </r>
   </si>
   <si>
@@ -2006,7 +2006,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ט</t>
+      <t xml:space="preserve">י</t>
     </r>
   </si>
   <si>
@@ -2032,7 +2032,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">י</t>
+      <t xml:space="preserve">יא</t>
     </r>
   </si>
   <si>
@@ -2058,7 +2058,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יא</t>
+      <t xml:space="preserve">יב</t>
     </r>
   </si>
   <si>
@@ -2084,7 +2084,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יב</t>
+      <t xml:space="preserve">יג</t>
     </r>
   </si>
   <si>
@@ -2110,7 +2110,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יג</t>
+      <t xml:space="preserve">יד</t>
     </r>
   </si>
   <si>
@@ -2136,7 +2136,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יד</t>
+      <t xml:space="preserve">טו</t>
     </r>
   </si>
   <si>
@@ -2162,7 +2162,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">טו</t>
+      <t xml:space="preserve">טז</t>
     </r>
   </si>
   <si>
@@ -2188,7 +2188,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">טז</t>
+      <t xml:space="preserve">יז</t>
     </r>
   </si>
   <si>
@@ -2214,7 +2214,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יז</t>
+      <t xml:space="preserve">יח</t>
     </r>
   </si>
   <si>
@@ -2240,7 +2240,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יח</t>
+      <t xml:space="preserve">יט</t>
     </r>
   </si>
   <si>
@@ -2266,7 +2266,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יט</t>
+      <t xml:space="preserve">כ</t>
     </r>
   </si>
   <si>
@@ -2292,7 +2292,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כ</t>
+      <t xml:space="preserve">כא</t>
     </r>
   </si>
   <si>
@@ -2318,7 +2318,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כא</t>
+      <t xml:space="preserve">כב</t>
     </r>
   </si>
   <si>
@@ -2344,7 +2344,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כב</t>
+      <t xml:space="preserve">כג</t>
     </r>
   </si>
   <si>
@@ -2370,7 +2370,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כג</t>
+      <t xml:space="preserve">כד</t>
     </r>
   </si>
   <si>
@@ -2396,7 +2396,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כד</t>
+      <t xml:space="preserve">כה</t>
     </r>
   </si>
   <si>
@@ -2422,7 +2422,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כה</t>
+      <t xml:space="preserve">כו</t>
     </r>
   </si>
   <si>
@@ -2448,7 +2448,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כו</t>
+      <t xml:space="preserve">כז</t>
     </r>
   </si>
   <si>
@@ -2474,7 +2474,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כז</t>
+      <t xml:space="preserve">כח</t>
     </r>
   </si>
   <si>
@@ -2500,7 +2500,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כח</t>
+      <t xml:space="preserve">כט</t>
     </r>
   </si>
   <si>
@@ -2526,7 +2526,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כט</t>
+      <t xml:space="preserve">ל</t>
     </r>
   </si>
   <si>
@@ -2552,7 +2552,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ל</t>
+      <t xml:space="preserve">לא</t>
     </r>
   </si>
   <si>
@@ -2578,7 +2578,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">לא</t>
+      <t xml:space="preserve">לב</t>
     </r>
   </si>
   <si>
@@ -2617,7 +2617,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">לב</t>
+      <t xml:space="preserve">לג</t>
     </r>
   </si>
   <si>
@@ -2643,7 +2643,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">לג</t>
+      <t xml:space="preserve">לד</t>
     </r>
   </si>
   <si>
@@ -2669,7 +2669,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">לד</t>
+      <t xml:space="preserve">לה</t>
     </r>
   </si>
   <si>
@@ -2683,19 +2683,19 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">מלכים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">לה</t>
+      <t xml:space="preserve">ישעיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">א</t>
     </r>
   </si>
   <si>
@@ -2721,7 +2721,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">א</t>
+      <t xml:space="preserve">ב</t>
     </r>
   </si>
   <si>
@@ -2747,7 +2747,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ב</t>
+      <t xml:space="preserve">ג</t>
     </r>
   </si>
   <si>
@@ -2773,7 +2773,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ג</t>
+      <t xml:space="preserve">ד</t>
     </r>
   </si>
   <si>
@@ -2799,7 +2799,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ד</t>
+      <t xml:space="preserve">ה</t>
     </r>
   </si>
   <si>
@@ -2825,7 +2825,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ה</t>
+      <t xml:space="preserve">ו</t>
     </r>
   </si>
   <si>
@@ -2851,7 +2851,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ו</t>
+      <t xml:space="preserve">ז</t>
     </r>
   </si>
   <si>
@@ -2877,7 +2877,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ז</t>
+      <t xml:space="preserve">ח</t>
     </r>
   </si>
   <si>
@@ -2903,7 +2903,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ח</t>
+      <t xml:space="preserve">ט</t>
     </r>
   </si>
   <si>
@@ -2929,7 +2929,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ט</t>
+      <t xml:space="preserve">י</t>
     </r>
   </si>
   <si>
@@ -2955,7 +2955,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">י</t>
+      <t xml:space="preserve">יא</t>
     </r>
   </si>
   <si>
@@ -2981,7 +2981,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יא</t>
+      <t xml:space="preserve">יב</t>
     </r>
   </si>
   <si>
@@ -3007,7 +3007,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יב</t>
+      <t xml:space="preserve">יג</t>
     </r>
   </si>
   <si>
@@ -3033,7 +3033,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יג</t>
+      <t xml:space="preserve">יד</t>
     </r>
   </si>
   <si>
@@ -3059,7 +3059,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יד</t>
+      <t xml:space="preserve">טו</t>
     </r>
   </si>
   <si>
@@ -3085,7 +3085,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">טו</t>
+      <t xml:space="preserve">טז</t>
     </r>
   </si>
   <si>
@@ -3111,7 +3111,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">טז</t>
+      <t xml:space="preserve">יז</t>
     </r>
   </si>
   <si>
@@ -3137,7 +3137,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יז</t>
+      <t xml:space="preserve">יח</t>
     </r>
   </si>
   <si>
@@ -3163,7 +3163,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יח</t>
+      <t xml:space="preserve">יט</t>
     </r>
   </si>
   <si>
@@ -3189,7 +3189,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יט</t>
+      <t xml:space="preserve">כ</t>
     </r>
   </si>
   <si>
@@ -3215,7 +3215,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כ</t>
+      <t xml:space="preserve">כא</t>
     </r>
   </si>
   <si>
@@ -3241,7 +3241,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כא</t>
+      <t xml:space="preserve">כב</t>
     </r>
   </si>
   <si>
@@ -3280,7 +3280,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כב</t>
+      <t xml:space="preserve">כג</t>
     </r>
   </si>
   <si>
@@ -3319,7 +3319,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כג</t>
+      <t xml:space="preserve">כד</t>
     </r>
   </si>
   <si>
@@ -3345,7 +3345,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כד</t>
+      <t xml:space="preserve">כה</t>
     </r>
   </si>
   <si>
@@ -3371,7 +3371,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כה</t>
+      <t xml:space="preserve">כו</t>
     </r>
   </si>
   <si>
@@ -3385,19 +3385,19 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ישעיהו</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">כו</t>
+      <t xml:space="preserve">ירמיהו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">א</t>
     </r>
   </si>
   <si>
@@ -3423,7 +3423,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">א</t>
+      <t xml:space="preserve">ב</t>
     </r>
   </si>
   <si>
@@ -3449,7 +3449,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ב</t>
+      <t xml:space="preserve">ג</t>
     </r>
   </si>
   <si>
@@ -3475,7 +3475,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ג</t>
+      <t xml:space="preserve">ד</t>
     </r>
   </si>
   <si>
@@ -3501,7 +3501,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ד</t>
+      <t xml:space="preserve">ה</t>
     </r>
   </si>
   <si>
@@ -3527,7 +3527,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ה</t>
+      <t xml:space="preserve">ו</t>
     </r>
   </si>
   <si>
@@ -3553,7 +3553,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ו</t>
+      <t xml:space="preserve">ז</t>
     </r>
   </si>
   <si>
@@ -3579,7 +3579,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ז</t>
+      <t xml:space="preserve">ח</t>
     </r>
   </si>
   <si>
@@ -3605,7 +3605,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ח</t>
+      <t xml:space="preserve">ט</t>
     </r>
   </si>
   <si>
@@ -3631,7 +3631,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ט</t>
+      <t xml:space="preserve">י</t>
     </r>
   </si>
   <si>
@@ -3657,7 +3657,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">י</t>
+      <t xml:space="preserve">יא</t>
     </r>
   </si>
   <si>
@@ -3683,7 +3683,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יא</t>
+      <t xml:space="preserve">יב</t>
     </r>
   </si>
   <si>
@@ -3709,7 +3709,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יב</t>
+      <t xml:space="preserve">יג</t>
     </r>
   </si>
   <si>
@@ -3735,7 +3735,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יג</t>
+      <t xml:space="preserve">יד</t>
     </r>
   </si>
   <si>
@@ -3761,7 +3761,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יד</t>
+      <t xml:space="preserve">טו</t>
     </r>
   </si>
   <si>
@@ -3787,7 +3787,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">טו</t>
+      <t xml:space="preserve">טז</t>
     </r>
   </si>
   <si>
@@ -3813,7 +3813,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">טז</t>
+      <t xml:space="preserve">יז</t>
     </r>
   </si>
   <si>
@@ -3839,7 +3839,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יז</t>
+      <t xml:space="preserve">יח</t>
     </r>
   </si>
   <si>
@@ -3865,7 +3865,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יח</t>
+      <t xml:space="preserve">יט</t>
     </r>
   </si>
   <si>
@@ -3891,7 +3891,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יט</t>
+      <t xml:space="preserve">כ</t>
     </r>
   </si>
   <si>
@@ -3917,7 +3917,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כ</t>
+      <t xml:space="preserve">כא</t>
     </r>
   </si>
   <si>
@@ -3956,7 +3956,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כא</t>
+      <t xml:space="preserve">כב</t>
     </r>
   </si>
   <si>
@@ -4004,7 +4004,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כב</t>
+      <t xml:space="preserve">כג</t>
     </r>
   </si>
   <si>
@@ -4030,7 +4030,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כג</t>
+      <t xml:space="preserve">כד</t>
     </r>
   </si>
   <si>
@@ -4056,7 +4056,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כד</t>
+      <t xml:space="preserve">כה</t>
     </r>
   </si>
   <si>
@@ -4082,7 +4082,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כה</t>
+      <t xml:space="preserve">כו</t>
     </r>
   </si>
   <si>
@@ -4108,7 +4108,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כו</t>
+      <t xml:space="preserve">כז</t>
     </r>
   </si>
   <si>
@@ -4134,7 +4134,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כז</t>
+      <t xml:space="preserve">כח</t>
     </r>
   </si>
   <si>
@@ -4160,7 +4160,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כח</t>
+      <t xml:space="preserve">כט</t>
     </r>
   </si>
   <si>
@@ -4186,7 +4186,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כט</t>
+      <t xml:space="preserve">ל</t>
     </r>
   </si>
   <si>
@@ -4212,7 +4212,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ל</t>
+      <t xml:space="preserve">לא</t>
     </r>
   </si>
   <si>
@@ -4226,19 +4226,19 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ירמיהו</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">לא</t>
+      <t xml:space="preserve">יחזקאל</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">א</t>
     </r>
   </si>
   <si>
@@ -4264,7 +4264,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">א</t>
+      <t xml:space="preserve">ב</t>
     </r>
   </si>
   <si>
@@ -4290,7 +4290,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ב</t>
+      <t xml:space="preserve">ג</t>
     </r>
   </si>
   <si>
@@ -4316,7 +4316,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ג</t>
+      <t xml:space="preserve">ד</t>
     </r>
   </si>
   <si>
@@ -4342,7 +4342,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ד</t>
+      <t xml:space="preserve">ה</t>
     </r>
   </si>
   <si>
@@ -4368,7 +4368,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ה</t>
+      <t xml:space="preserve">ו</t>
     </r>
   </si>
   <si>
@@ -4394,7 +4394,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ו</t>
+      <t xml:space="preserve">ז</t>
     </r>
   </si>
   <si>
@@ -4420,7 +4420,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ז</t>
+      <t xml:space="preserve">ח</t>
     </r>
   </si>
   <si>
@@ -4446,7 +4446,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ח</t>
+      <t xml:space="preserve">ט</t>
     </r>
   </si>
   <si>
@@ -4472,7 +4472,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">ט</t>
+      <t xml:space="preserve">י</t>
     </r>
   </si>
   <si>
@@ -4498,7 +4498,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">י</t>
+      <t xml:space="preserve">יא</t>
     </r>
   </si>
   <si>
@@ -4524,7 +4524,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יא</t>
+      <t xml:space="preserve">יב</t>
     </r>
   </si>
   <si>
@@ -4550,7 +4550,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יב</t>
+      <t xml:space="preserve">יג</t>
     </r>
   </si>
   <si>
@@ -4576,7 +4576,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יג</t>
+      <t xml:space="preserve">יד</t>
     </r>
   </si>
   <si>
@@ -4602,7 +4602,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יד</t>
+      <t xml:space="preserve">טו</t>
     </r>
   </si>
   <si>
@@ -4628,7 +4628,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">טו</t>
+      <t xml:space="preserve">טז</t>
     </r>
   </si>
   <si>
@@ -4667,7 +4667,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">טז</t>
+      <t xml:space="preserve">יז</t>
     </r>
   </si>
   <si>
@@ -4706,7 +4706,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יז</t>
+      <t xml:space="preserve">יח</t>
     </r>
   </si>
   <si>
@@ -4745,7 +4745,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יח</t>
+      <t xml:space="preserve">יט</t>
     </r>
   </si>
   <si>
@@ -4784,7 +4784,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יט</t>
+      <t xml:space="preserve">כ</t>
     </r>
   </si>
   <si>
@@ -4823,7 +4823,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כ</t>
+      <t xml:space="preserve">כא</t>
     </r>
   </si>
   <si>
@@ -4858,7 +4858,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כא</t>
+      <t xml:space="preserve">כב</t>
     </r>
   </si>
   <si>
@@ -4884,7 +4884,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כב</t>
+      <t xml:space="preserve">כג</t>
     </r>
   </si>
   <si>
@@ -4910,7 +4910,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כג</t>
+      <t xml:space="preserve">כד</t>
     </r>
   </si>
   <si>
@@ -4936,7 +4936,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כד</t>
+      <t xml:space="preserve">כה</t>
     </r>
   </si>
   <si>
@@ -4962,7 +4962,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כה</t>
+      <t xml:space="preserve">כו</t>
     </r>
   </si>
   <si>
@@ -4988,7 +4988,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כו</t>
+      <t xml:space="preserve">כז</t>
     </r>
   </si>
   <si>
@@ -5014,7 +5014,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כז</t>
+      <t xml:space="preserve">כח</t>
     </r>
   </si>
   <si>
@@ -5040,7 +5040,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">כח</t>
+      <t xml:space="preserve">כט</t>
     </r>
   </si>
   <si>
@@ -5054,19 +5054,19 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">יחזקאל</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">כט</t>
+      <t xml:space="preserve">תרי עשר</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">א</t>
     </r>
   </si>
   <si>
@@ -5105,30 +5105,550 @@
       <rPr>
         <sz val="8"/>
       </rPr>
+      <t xml:space="preserve">ב</t>
+    </r>
+  </si>
+  <si>
+    <t>ד אייר</t>
+  </si>
+  <si>
+    <t>5/5</t>
+  </si>
+  <si>
+    <t>עצמאות</t>
+  </si>
+  <si>
+    <t>ה אייר</t>
+  </si>
+  <si>
+    <t>6/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">ג</t>
+    </r>
+  </si>
+  <si>
+    <t>ז אייר</t>
+  </si>
+  <si>
+    <t>8/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">ד</t>
+    </r>
+  </si>
+  <si>
+    <t>ח אייר</t>
+  </si>
+  <si>
+    <t>9/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">ה</t>
+    </r>
+  </si>
+  <si>
+    <t>ט אייר</t>
+  </si>
+  <si>
+    <t>10/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">ו</t>
+    </r>
+  </si>
+  <si>
+    <t>י אייר</t>
+  </si>
+  <si>
+    <t>11/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">ז</t>
+    </r>
+  </si>
+  <si>
+    <t>יא אייר</t>
+  </si>
+  <si>
+    <t>12/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">ח</t>
+    </r>
+  </si>
+  <si>
+    <t>יב אייר</t>
+  </si>
+  <si>
+    <t>13/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">ט</t>
+    </r>
+  </si>
+  <si>
+    <t>יד אייר</t>
+  </si>
+  <si>
+    <t>15/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">י</t>
+    </r>
+  </si>
+  <si>
+    <t>טו אייר</t>
+  </si>
+  <si>
+    <t>16/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תר"ע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">יא</t>
+    </r>
+  </si>
+  <si>
+    <t>טז אייר</t>
+  </si>
+  <si>
+    <t>17/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תר"ע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">יב</t>
+    </r>
+  </si>
+  <si>
+    <t>יז אייר</t>
+  </si>
+  <si>
+    <t>18/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תר"ע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">יג</t>
+    </r>
+  </si>
+  <si>
+    <t>יח אייר</t>
+  </si>
+  <si>
+    <t>19/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תר"ע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">יד</t>
+    </r>
+  </si>
+  <si>
+    <t>יט אייר</t>
+  </si>
+  <si>
+    <t>20/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תר"ע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">טו</t>
+    </r>
+  </si>
+  <si>
+    <t>כא אייר</t>
+  </si>
+  <si>
+    <t>22/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תר"ע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">טז</t>
+    </r>
+  </si>
+  <si>
+    <t>כב אייר</t>
+  </si>
+  <si>
+    <t>23/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תר"ע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">יז</t>
+    </r>
+  </si>
+  <si>
+    <t>כג אייר</t>
+  </si>
+  <si>
+    <t>24/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תר"ע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">יח</t>
+    </r>
+  </si>
+  <si>
+    <t>כד אייר</t>
+  </si>
+  <si>
+    <t>25/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תר"ע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">יט</t>
+    </r>
+  </si>
+  <si>
+    <t>כה אייר</t>
+  </si>
+  <si>
+    <t>26/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תרי עשר</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">כ</t>
+    </r>
+  </si>
+  <si>
+    <t>כו אייר</t>
+  </si>
+  <si>
+    <t>27/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תר"ע</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">כא</t>
+    </r>
+  </si>
+  <si>
+    <t>כח אייר</t>
+  </si>
+  <si>
+    <t>29/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
       <t xml:space="preserve">א</t>
     </r>
   </si>
   <si>
-    <t>ד אייר</t>
-  </si>
-  <si>
-    <t>5/5</t>
-  </si>
-  <si>
-    <t>עצמאות</t>
-  </si>
-  <si>
-    <t>ה אייר</t>
-  </si>
-  <si>
-    <t>6/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
+    <t>כט אייר</t>
+  </si>
+  <si>
+    <t>30/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -5144,17 +5664,17 @@
     </r>
   </si>
   <si>
-    <t>ז אייר</t>
-  </si>
-  <si>
-    <t>8/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
+    <t>א סיון</t>
+  </si>
+  <si>
+    <t>31/5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -5170,17 +5690,17 @@
     </r>
   </si>
   <si>
-    <t>ח אייר</t>
-  </si>
-  <si>
-    <t>9/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
+    <t>ב סיון</t>
+  </si>
+  <si>
+    <t>1/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -5196,17 +5716,17 @@
     </r>
   </si>
   <si>
-    <t>ט אייר</t>
-  </si>
-  <si>
-    <t>10/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
+    <t>ג סיון</t>
+  </si>
+  <si>
+    <t>2/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -5222,17 +5742,17 @@
     </r>
   </si>
   <si>
-    <t>י אייר</t>
-  </si>
-  <si>
-    <t>11/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
+    <t>ד סיון</t>
+  </si>
+  <si>
+    <t>3/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -5248,17 +5768,26 @@
     </r>
   </si>
   <si>
-    <t>יא אייר</t>
-  </si>
-  <si>
-    <t>12/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
+    <t>ו סיון</t>
+  </si>
+  <si>
+    <t>5/6</t>
+  </si>
+  <si>
+    <t>שבועות</t>
+  </si>
+  <si>
+    <t>ז סיון</t>
+  </si>
+  <si>
+    <t>6/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -5274,17 +5803,17 @@
     </r>
   </si>
   <si>
-    <t>יב אייר</t>
-  </si>
-  <si>
-    <t>13/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
+    <t>ח סיון</t>
+  </si>
+  <si>
+    <t>7/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -5300,17 +5829,17 @@
     </r>
   </si>
   <si>
-    <t>יד אייר</t>
-  </si>
-  <si>
-    <t>15/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
+    <t>ט סיון</t>
+  </si>
+  <si>
+    <t>8/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -5326,17 +5855,17 @@
     </r>
   </si>
   <si>
-    <t>טו אייר</t>
-  </si>
-  <si>
-    <t>16/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
+    <t>י סיון</t>
+  </si>
+  <si>
+    <t>9/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -5352,17 +5881,17 @@
     </r>
   </si>
   <si>
-    <t>טז אייר</t>
-  </si>
-  <si>
-    <t>17/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תר"ע</t>
+    <t>יא סיון</t>
+  </si>
+  <si>
+    <t>10/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -5378,17 +5907,17 @@
     </r>
   </si>
   <si>
-    <t>יז אייר</t>
-  </si>
-  <si>
-    <t>18/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תר"ע</t>
+    <t>יג סיון</t>
+  </si>
+  <si>
+    <t>12/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -5404,17 +5933,17 @@
     </r>
   </si>
   <si>
-    <t>יח אייר</t>
-  </si>
-  <si>
-    <t>19/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תר"ע</t>
+    <t>יד סיון</t>
+  </si>
+  <si>
+    <t>13/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -5430,17 +5959,17 @@
     </r>
   </si>
   <si>
-    <t>יט אייר</t>
-  </si>
-  <si>
-    <t>20/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תר"ע</t>
+    <t>טו סיון</t>
+  </si>
+  <si>
+    <t>14/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -5456,17 +5985,17 @@
     </r>
   </si>
   <si>
-    <t>כא אייר</t>
-  </si>
-  <si>
-    <t>22/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תר"ע</t>
+    <t>טז סיון</t>
+  </si>
+  <si>
+    <t>15/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -5482,17 +6011,17 @@
     </r>
   </si>
   <si>
-    <t>כב אייר</t>
-  </si>
-  <si>
-    <t>23/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תר"ע</t>
+    <t>יז סיון</t>
+  </si>
+  <si>
+    <t>16/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -5508,17 +6037,17 @@
     </r>
   </si>
   <si>
-    <t>כג אייר</t>
-  </si>
-  <si>
-    <t>24/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תר"ע</t>
+    <t>יח סיון</t>
+  </si>
+  <si>
+    <t>17/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -5534,17 +6063,17 @@
     </r>
   </si>
   <si>
-    <t>כד אייר</t>
-  </si>
-  <si>
-    <t>25/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תר"ע</t>
+    <t>כ סיון</t>
+  </si>
+  <si>
+    <t>19/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -5560,17 +6089,17 @@
     </r>
   </si>
   <si>
-    <t>כה אייר</t>
-  </si>
-  <si>
-    <t>26/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תר"ע</t>
+    <t>כא סיון</t>
+  </si>
+  <si>
+    <t>20/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">תהלים</t>
     </r>
     <r>
       <rPr>
@@ -5586,69 +6115,17 @@
     </r>
   </si>
   <si>
-    <t>כו אייר</t>
-  </si>
-  <si>
-    <t>27/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תרי עשר</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">כ</t>
-    </r>
-  </si>
-  <si>
-    <t>כח אייר</t>
-  </si>
-  <si>
-    <t>29/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תר"ע</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">כא</t>
-    </r>
-  </si>
-  <si>
-    <t>כט אייר</t>
-  </si>
-  <si>
-    <t>30/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
+    <t>כב סיון</t>
+  </si>
+  <si>
+    <t>21/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">משלי</t>
     </r>
     <r>
       <rPr>
@@ -5664,17 +6141,17 @@
     </r>
   </si>
   <si>
-    <t>א סיון</t>
-  </si>
-  <si>
-    <t>31/5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
+    <t>כג סיון</t>
+  </si>
+  <si>
+    <t>22/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">משלי</t>
     </r>
     <r>
       <rPr>
@@ -5690,17 +6167,17 @@
     </r>
   </si>
   <si>
-    <t>ב סיון</t>
-  </si>
-  <si>
-    <t>1/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
+    <t>כד סיון</t>
+  </si>
+  <si>
+    <t>23/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">משלי</t>
     </r>
     <r>
       <rPr>
@@ -5716,17 +6193,17 @@
     </r>
   </si>
   <si>
-    <t>ג סיון</t>
-  </si>
-  <si>
-    <t>2/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
+    <t>כה סיון</t>
+  </si>
+  <si>
+    <t>24/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">משלי</t>
     </r>
     <r>
       <rPr>
@@ -5742,17 +6219,17 @@
     </r>
   </si>
   <si>
-    <t>ד סיון</t>
-  </si>
-  <si>
-    <t>3/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
+    <t>כז סיון</t>
+  </si>
+  <si>
+    <t>26/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">משלי</t>
     </r>
     <r>
       <rPr>
@@ -5768,26 +6245,17 @@
     </r>
   </si>
   <si>
-    <t>ו סיון</t>
-  </si>
-  <si>
-    <t>5/6</t>
-  </si>
-  <si>
-    <t>שבועות</t>
-  </si>
-  <si>
-    <t>ז סיון</t>
-  </si>
-  <si>
-    <t>6/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
+    <t>כח סיון</t>
+  </si>
+  <si>
+    <t>27/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">משלי</t>
     </r>
     <r>
       <rPr>
@@ -5803,17 +6271,17 @@
     </r>
   </si>
   <si>
-    <t>ח סיון</t>
-  </si>
-  <si>
-    <t>7/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
+    <t>כט סיון</t>
+  </si>
+  <si>
+    <t>28/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">משלי</t>
     </r>
     <r>
       <rPr>
@@ -5829,17 +6297,17 @@
     </r>
   </si>
   <si>
-    <t>ט סיון</t>
-  </si>
-  <si>
-    <t>8/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
+    <t>ל סיון</t>
+  </si>
+  <si>
+    <t>29/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">משלי</t>
     </r>
     <r>
       <rPr>
@@ -5855,303 +6323,17 @@
     </r>
   </si>
   <si>
-    <t>י סיון</t>
-  </si>
-  <si>
-    <t>9/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">ט</t>
-    </r>
-  </si>
-  <si>
-    <t>יא סיון</t>
-  </si>
-  <si>
-    <t>10/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">י</t>
-    </r>
-  </si>
-  <si>
-    <t>יג סיון</t>
-  </si>
-  <si>
-    <t>12/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">יא</t>
-    </r>
-  </si>
-  <si>
-    <t>יד סיון</t>
-  </si>
-  <si>
-    <t>13/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">יב</t>
-    </r>
-  </si>
-  <si>
-    <t>טו סיון</t>
-  </si>
-  <si>
-    <t>14/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">יג</t>
-    </r>
-  </si>
-  <si>
-    <t>טז סיון</t>
-  </si>
-  <si>
-    <t>15/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">יד</t>
-    </r>
-  </si>
-  <si>
-    <t>יז סיון</t>
-  </si>
-  <si>
-    <t>16/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">טו</t>
-    </r>
-  </si>
-  <si>
-    <t>יח סיון</t>
-  </si>
-  <si>
-    <t>17/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">טז</t>
-    </r>
-  </si>
-  <si>
-    <t>כ סיון</t>
-  </si>
-  <si>
-    <t>19/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">יז</t>
-    </r>
-  </si>
-  <si>
-    <t>כא סיון</t>
-  </si>
-  <si>
-    <t>20/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">יח</t>
-    </r>
-  </si>
-  <si>
-    <t>כב סיון</t>
-  </si>
-  <si>
-    <t>21/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">תהלים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">יט</t>
-    </r>
-  </si>
-  <si>
-    <t>כג סיון</t>
-  </si>
-  <si>
-    <t>22/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">משלי</t>
+    <t>א תמוז</t>
+  </si>
+  <si>
+    <t>30/6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">איוב</t>
     </r>
     <r>
       <rPr>
@@ -6167,17 +6349,17 @@
     </r>
   </si>
   <si>
-    <t>כד סיון</t>
-  </si>
-  <si>
-    <t>23/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">משלי</t>
+    <t>ב תמוז</t>
+  </si>
+  <si>
+    <t>1/7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">איוב</t>
     </r>
     <r>
       <rPr>
@@ -6193,17 +6375,17 @@
     </r>
   </si>
   <si>
-    <t>כה סיון</t>
-  </si>
-  <si>
-    <t>24/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">משלי</t>
+    <t>ד תמוז</t>
+  </si>
+  <si>
+    <t>3/7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">איוב</t>
     </r>
     <r>
       <rPr>
@@ -6219,17 +6401,17 @@
     </r>
   </si>
   <si>
-    <t>כז סיון</t>
-  </si>
-  <si>
-    <t>26/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">משלי</t>
+    <t>ה תמוז</t>
+  </si>
+  <si>
+    <t>4/7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">איוב</t>
     </r>
     <r>
       <rPr>
@@ -6245,17 +6427,17 @@
     </r>
   </si>
   <si>
-    <t>כח סיון</t>
-  </si>
-  <si>
-    <t>27/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">משלי</t>
+    <t>ו תמוז</t>
+  </si>
+  <si>
+    <t>5/7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">איוב</t>
     </r>
     <r>
       <rPr>
@@ -6271,17 +6453,17 @@
     </r>
   </si>
   <si>
-    <t>כט סיון</t>
-  </si>
-  <si>
-    <t>28/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">משלי</t>
+    <t>ז תמוז</t>
+  </si>
+  <si>
+    <t>6/7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">איוב</t>
     </r>
     <r>
       <rPr>
@@ -6297,17 +6479,17 @@
     </r>
   </si>
   <si>
-    <t>ל סיון</t>
-  </si>
-  <si>
-    <t>29/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">משלי</t>
+    <t>ח תמוז</t>
+  </si>
+  <si>
+    <t>7/7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">איוב</t>
     </r>
     <r>
       <rPr>
@@ -6323,17 +6505,17 @@
     </r>
   </si>
   <si>
-    <t>א תמוז</t>
-  </si>
-  <si>
-    <t>30/6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">משלי</t>
+    <t>ט תמוז</t>
+  </si>
+  <si>
+    <t>8/7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">איוב</t>
     </r>
     <r>
       <rPr>
@@ -6349,17 +6531,17 @@
     </r>
   </si>
   <si>
-    <t>ב תמוז</t>
-  </si>
-  <si>
-    <t>1/7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">איוב</t>
+    <t>יא תמוז</t>
+  </si>
+  <si>
+    <t>10/7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">שיר השירים</t>
     </r>
     <r>
       <rPr>
@@ -6375,188 +6557,6 @@
     </r>
   </si>
   <si>
-    <t>ד תמוז</t>
-  </si>
-  <si>
-    <t>3/7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">איוב</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">ב</t>
-    </r>
-  </si>
-  <si>
-    <t>ה תמוז</t>
-  </si>
-  <si>
-    <t>4/7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">איוב</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">ג</t>
-    </r>
-  </si>
-  <si>
-    <t>ו תמוז</t>
-  </si>
-  <si>
-    <t>5/7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">איוב</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">ד</t>
-    </r>
-  </si>
-  <si>
-    <t>ז תמוז</t>
-  </si>
-  <si>
-    <t>6/7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">איוב</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">ה</t>
-    </r>
-  </si>
-  <si>
-    <t>ח תמוז</t>
-  </si>
-  <si>
-    <t>7/7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">איוב</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">ו</t>
-    </r>
-  </si>
-  <si>
-    <t>ט תמוז</t>
-  </si>
-  <si>
-    <t>8/7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">איוב</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">ז</t>
-    </r>
-  </si>
-  <si>
-    <t>יא תמוז</t>
-  </si>
-  <si>
-    <t>10/7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">איוב</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">ח</t>
-    </r>
-  </si>
-  <si>
     <t>יב תמוז</t>
   </si>
   <si>
@@ -6567,19 +6567,19 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">שיר השירים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-      </rPr>
-      <t xml:space="preserve"> ס' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-      </rPr>
-      <t xml:space="preserve">א</t>
+      <t xml:space="preserve">רות</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+      </rPr>
+      <t xml:space="preserve"> ס' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">א1</t>
     </r>
   </si>
   <si>
@@ -6605,7 +6605,7 @@
       <rPr>
         <sz val="8"/>
       </rPr>
-      <t xml:space="preserve">א</t>
+      <t xml:space="preserve">א2</t>
     </r>
   </si>
   <si>
@@ -8238,14 +8238,14 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="David"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="David"/>
       <family val="1"/>
@@ -8310,6 +8310,8 @@
   <cellXfs count="12">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1"/>
+    <xf applyFont="1" fontId="0" applyBorder="1" borderId="1"/>
+    <xf applyFont="1" fontId="1" applyBorder="1" borderId="1"/>
     <xf applyFont="1" fontId="2"/>
     <xf applyFont="1" fontId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8317,8 +8319,6 @@
     <xf applyFont="1" fontId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="contextDependent"/>
     </xf>
-    <xf applyFont="1" fontId="0" applyBorder="1" borderId="1"/>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="1"/>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="2"/>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="2" applyAlignment="1">
       <alignment horizontal="right" readingOrder="contextDependent"/>
@@ -8327,7 +8327,7 @@
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFont="1" fontId="1" applyBorder="1" borderId="3" applyAlignment="1">
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8343,22 +8343,22 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
